--- a/AAII_Financials/Quarterly/CPPXF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CPPXF_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>CPPXF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,81 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,8 +785,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +835,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1010,20 +1029,20 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
         <v>-200</v>
       </c>
       <c r="K14" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M14" s="3">
         <v>500</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1036,8 +1055,11 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,8 +1124,9 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1111,32 +1137,32 @@
         <v>100</v>
       </c>
       <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
-        <v>100</v>
-      </c>
       <c r="H17" s="3">
         <v>100</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J17" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K17" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
-        <v>100</v>
-      </c>
       <c r="O17" s="3">
         <v>100</v>
       </c>
@@ -1146,8 +1172,11 @@
       <c r="Q17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1158,32 +1187,32 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
-        <v>-100</v>
-      </c>
       <c r="H18" s="3">
         <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
-        <v>-100</v>
-      </c>
       <c r="O18" s="3">
         <v>-100</v>
       </c>
@@ -1193,8 +1222,11 @@
       <c r="Q18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1242,11 +1275,11 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1259,8 +1292,11 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1268,35 +1304,35 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
         <v>-200</v>
       </c>
       <c r="G21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H21" s="3">
         <v>-100</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>-800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
-        <v>-100</v>
-      </c>
       <c r="O21" s="3">
         <v>-100</v>
       </c>
@@ -1306,8 +1342,11 @@
       <c r="Q21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,8 +1392,11 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1362,35 +1404,35 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
         <v>-200</v>
       </c>
       <c r="G23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H23" s="3">
         <v>-100</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
-        <v>-100</v>
-      </c>
       <c r="O23" s="3">
         <v>-100</v>
       </c>
@@ -1400,8 +1442,11 @@
       <c r="Q23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,8 +1542,11 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1503,35 +1554,35 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
         <v>-200</v>
       </c>
       <c r="G26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H26" s="3">
         <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
-        <v>-100</v>
-      </c>
       <c r="O26" s="3">
         <v>-100</v>
       </c>
@@ -1541,8 +1592,11 @@
       <c r="Q26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1550,35 +1604,35 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
         <v>-200</v>
       </c>
       <c r="G27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H27" s="3">
         <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
-        <v>-100</v>
-      </c>
       <c r="O27" s="3">
         <v>-100</v>
       </c>
@@ -1588,8 +1642,11 @@
       <c r="Q27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1806,11 +1875,11 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -1823,8 +1892,11 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1832,35 +1904,35 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
         <v>-200</v>
       </c>
       <c r="G33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
-        <v>-100</v>
-      </c>
       <c r="O33" s="3">
         <v>-100</v>
       </c>
@@ -1870,8 +1942,11 @@
       <c r="Q33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,8 +1992,11 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1926,35 +2004,35 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
         <v>-200</v>
       </c>
       <c r="G35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
-        <v>-100</v>
-      </c>
       <c r="O35" s="3">
         <v>-100</v>
       </c>
@@ -1964,60 +2042,66 @@
       <c r="Q35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,8 +2139,9 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2063,29 +2149,29 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>300</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -2101,8 +2187,11 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2127,8 +2216,8 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>4</v>
+      <c r="K42" s="3">
+        <v>0</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>4</v>
@@ -2136,11 +2225,11 @@
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N42" s="3">
-        <v>100</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>4</v>
+      <c r="N42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O42" s="3">
+        <v>100</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>4</v>
@@ -2148,8 +2237,11 @@
       <c r="Q42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2287,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2337,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2266,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -2275,7 +2373,7 @@
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2289,8 +2387,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2298,37 +2399,37 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
         <v>200</v>
-      </c>
-      <c r="G46" s="3">
-        <v>300</v>
       </c>
       <c r="H46" s="3">
         <v>300</v>
       </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J46" s="3">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
-        <v>100</v>
-      </c>
       <c r="N46" s="3">
         <v>100</v>
       </c>
       <c r="O46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
         <v>0</v>
@@ -2336,8 +2437,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,8 +2487,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2403,8 +2510,8 @@
       <c r="H48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I48" s="3">
-        <v>0</v>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -2430,8 +2537,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2737,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,8 +2787,11 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2674,37 +2799,37 @@
         <v>0</v>
       </c>
       <c r="E54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F54" s="3">
+        <v>100</v>
+      </c>
+      <c r="G54" s="3">
         <v>200</v>
-      </c>
-      <c r="G54" s="3">
-        <v>300</v>
       </c>
       <c r="H54" s="3">
         <v>300</v>
       </c>
       <c r="I54" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J54" s="3">
+        <v>100</v>
+      </c>
+      <c r="K54" s="3">
         <v>300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>200</v>
       </c>
-      <c r="M54" s="3">
-        <v>100</v>
-      </c>
       <c r="N54" s="3">
         <v>100</v>
       </c>
       <c r="O54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P54" s="3">
         <v>0</v>
@@ -2712,8 +2837,11 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +2879,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2759,7 +2889,7 @@
         <v>400</v>
       </c>
       <c r="E57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F57" s="3">
         <v>300</v>
@@ -2768,10 +2898,10 @@
         <v>300</v>
       </c>
       <c r="H57" s="3">
+        <v>300</v>
+      </c>
+      <c r="I57" s="3">
         <v>400</v>
-      </c>
-      <c r="I57" s="3">
-        <v>500</v>
       </c>
       <c r="J57" s="3">
         <v>500</v>
@@ -2780,25 +2910,28 @@
         <v>500</v>
       </c>
       <c r="L57" s="3">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M57" s="3">
         <v>900</v>
       </c>
       <c r="N57" s="3">
+        <v>900</v>
+      </c>
+      <c r="O57" s="3">
         <v>1000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>900</v>
-      </c>
-      <c r="P57" s="3">
-        <v>800</v>
       </c>
       <c r="Q57" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2830,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>500</v>
@@ -2844,8 +2977,11 @@
       <c r="Q58" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2877,42 +3013,45 @@
         <v>100</v>
       </c>
       <c r="M59" s="3">
+        <v>100</v>
+      </c>
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>200</v>
       </c>
-      <c r="O59" s="3">
-        <v>100</v>
-      </c>
       <c r="P59" s="3">
         <v>100</v>
       </c>
       <c r="Q59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E60" s="3">
         <v>400</v>
       </c>
       <c r="F60" s="3">
+        <v>400</v>
+      </c>
+      <c r="G60" s="3">
         <v>300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>400</v>
       </c>
       <c r="H60" s="3">
         <v>400</v>
       </c>
       <c r="I60" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="J60" s="3">
         <v>600</v>
@@ -2921,25 +3060,28 @@
         <v>600</v>
       </c>
       <c r="L60" s="3">
+        <v>600</v>
+      </c>
+      <c r="M60" s="3">
         <v>1000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2959,7 +3101,7 @@
         <v>100</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2985,8 +3127,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,25 +3327,28 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E66" s="3">
         <v>500</v>
       </c>
       <c r="F66" s="3">
+        <v>500</v>
+      </c>
+      <c r="G66" s="3">
         <v>400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>500</v>
-      </c>
-      <c r="H66" s="3">
-        <v>600</v>
       </c>
       <c r="I66" s="3">
         <v>600</v>
@@ -3203,25 +3360,28 @@
         <v>600</v>
       </c>
       <c r="L66" s="3">
+        <v>600</v>
+      </c>
+      <c r="M66" s="3">
         <v>1000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-18700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-18600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-18500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-18400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-18300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-18400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-18300</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-18500</v>
       </c>
       <c r="L72" s="3">
         <v>-18500</v>
       </c>
       <c r="M72" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="N72" s="3">
         <v>-17900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-17800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-17700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-17600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-17500</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,19 +3797,22 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-400</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-200</v>
       </c>
       <c r="G76" s="3">
         <v>-200</v>
@@ -3636,34 +3821,37 @@
         <v>-200</v>
       </c>
       <c r="I76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J76" s="3">
         <v>-500</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-300</v>
       </c>
       <c r="K76" s="3">
         <v>-300</v>
       </c>
       <c r="L76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M76" s="3">
         <v>-800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,60 +3897,66 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3770,35 +3964,35 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
         <v>-200</v>
       </c>
       <c r="G81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
-        <v>-100</v>
-      </c>
       <c r="O81" s="3">
         <v>-100</v>
       </c>
@@ -3808,8 +4002,11 @@
       <c r="Q81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4322,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4118,17 +4334,17 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
-        <v>-100</v>
-      </c>
       <c r="I89" s="3">
         <v>-100</v>
       </c>
@@ -4142,11 +4358,11 @@
         <v>-100</v>
       </c>
       <c r="M89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
@@ -4156,8 +4372,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4442,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4542,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4363,8 +4592,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +4812,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4585,29 +4830,29 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
       <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -4617,8 +4862,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,8 +4912,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4673,29 +4924,29 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
-        <v>-100</v>
-      </c>
       <c r="J102" s="3">
         <v>-100</v>
       </c>
       <c r="K102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -4709,6 +4960,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CPPXF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CPPXF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>CPPXF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,8 +792,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1032,20 +1052,20 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K14" s="3">
         <v>-200</v>
       </c>
       <c r="L14" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N14" s="3">
         <v>500</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,8 +1151,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1134,38 +1161,38 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
       </c>
       <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
-        <v>100</v>
-      </c>
       <c r="I17" s="3">
         <v>100</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K17" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L17" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
-        <v>100</v>
-      </c>
       <c r="P17" s="3">
         <v>100</v>
       </c>
@@ -1175,8 +1202,11 @@
       <c r="R17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,38 +1214,38 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
       </c>
       <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
-        <v>-100</v>
-      </c>
       <c r="I18" s="3">
         <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
-        <v>-100</v>
-      </c>
       <c r="P18" s="3">
         <v>-100</v>
       </c>
@@ -1225,8 +1255,11 @@
       <c r="R18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1278,11 +1312,11 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1295,8 +1329,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1304,38 +1341,38 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F21" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G21" s="3">
         <v>-200</v>
       </c>
       <c r="H21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I21" s="3">
         <v>-100</v>
       </c>
       <c r="J21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
-        <v>-100</v>
-      </c>
       <c r="P21" s="3">
         <v>-100</v>
       </c>
@@ -1345,8 +1382,11 @@
       <c r="R21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,8 +1435,11 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1404,38 +1447,38 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
         <v>-200</v>
       </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
-        <v>-100</v>
-      </c>
       <c r="P23" s="3">
         <v>-100</v>
       </c>
@@ -1445,8 +1488,11 @@
       <c r="R23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,8 +1594,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1554,38 +1606,38 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
         <v>-200</v>
       </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
-        <v>-100</v>
-      </c>
       <c r="P26" s="3">
         <v>-100</v>
       </c>
@@ -1595,8 +1647,11 @@
       <c r="R26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1604,38 +1659,38 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
         <v>-200</v>
       </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
-        <v>-100</v>
-      </c>
       <c r="P27" s="3">
         <v>-100</v>
       </c>
@@ -1645,8 +1700,11 @@
       <c r="R27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1878,11 +1948,11 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -1895,8 +1965,11 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1904,38 +1977,38 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
         <v>-200</v>
       </c>
       <c r="H33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
-        <v>-100</v>
-      </c>
       <c r="P33" s="3">
         <v>-100</v>
       </c>
@@ -1945,8 +2018,11 @@
       <c r="R33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,8 +2071,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2004,38 +2083,38 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
         <v>-200</v>
       </c>
       <c r="H35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
-        <v>-100</v>
-      </c>
       <c r="P35" s="3">
         <v>-100</v>
       </c>
@@ -2045,63 +2124,69 @@
       <c r="R35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,41 +2226,42 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>300</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
@@ -2190,8 +2277,11 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2219,8 +2309,8 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>4</v>
+      <c r="L42" s="3">
+        <v>0</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>4</v>
@@ -2228,11 +2318,11 @@
       <c r="N42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O42" s="3">
-        <v>100</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>4</v>
+      <c r="O42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P42" s="3">
+        <v>100</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>4</v>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2367,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -2376,7 +2475,7 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2390,49 +2489,52 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
       </c>
       <c r="F46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G46" s="3">
+        <v>100</v>
+      </c>
+      <c r="H46" s="3">
         <v>200</v>
-      </c>
-      <c r="H46" s="3">
-        <v>300</v>
       </c>
       <c r="I46" s="3">
         <v>300</v>
       </c>
       <c r="J46" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
-        <v>100</v>
-      </c>
       <c r="O46" s="3">
         <v>100</v>
       </c>
       <c r="P46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="3">
         <v>0</v>
@@ -2440,8 +2542,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,28 +2595,31 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,49 +2913,52 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
       </c>
       <c r="F54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G54" s="3">
+        <v>100</v>
+      </c>
+      <c r="H54" s="3">
         <v>200</v>
-      </c>
-      <c r="H54" s="3">
-        <v>300</v>
       </c>
       <c r="I54" s="3">
         <v>300</v>
       </c>
       <c r="J54" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K54" s="3">
+        <v>100</v>
+      </c>
+      <c r="L54" s="3">
         <v>300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>200</v>
       </c>
-      <c r="N54" s="3">
-        <v>100</v>
-      </c>
       <c r="O54" s="3">
         <v>100</v>
       </c>
       <c r="P54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q54" s="3">
         <v>0</v>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,19 +3010,20 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E57" s="3">
         <v>400</v>
       </c>
       <c r="F57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G57" s="3">
         <v>300</v>
@@ -2901,10 +3032,10 @@
         <v>300</v>
       </c>
       <c r="I57" s="3">
+        <v>300</v>
+      </c>
+      <c r="J57" s="3">
         <v>400</v>
-      </c>
-      <c r="J57" s="3">
-        <v>500</v>
       </c>
       <c r="K57" s="3">
         <v>500</v>
@@ -2913,48 +3044,51 @@
         <v>500</v>
       </c>
       <c r="M57" s="3">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="N57" s="3">
         <v>900</v>
       </c>
       <c r="O57" s="3">
+        <v>900</v>
+      </c>
+      <c r="P57" s="3">
         <v>1000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>900</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>800</v>
       </c>
       <c r="R57" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2966,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>500</v>
@@ -2980,31 +3114,34 @@
       <c r="R58" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K59" s="3">
         <v>100</v>
@@ -3016,45 +3153,48 @@
         <v>100</v>
       </c>
       <c r="N59" s="3">
+        <v>100</v>
+      </c>
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="P59" s="3">
-        <v>100</v>
-      </c>
       <c r="Q59" s="3">
         <v>100</v>
       </c>
       <c r="R59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>600</v>
+      </c>
+      <c r="E60" s="3">
         <v>500</v>
-      </c>
-      <c r="E60" s="3">
-        <v>400</v>
       </c>
       <c r="F60" s="3">
         <v>400</v>
       </c>
       <c r="G60" s="3">
+        <v>400</v>
+      </c>
+      <c r="H60" s="3">
         <v>300</v>
-      </c>
-      <c r="H60" s="3">
-        <v>400</v>
       </c>
       <c r="I60" s="3">
         <v>400</v>
       </c>
       <c r="J60" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K60" s="3">
         <v>600</v>
@@ -3063,30 +3203,33 @@
         <v>600</v>
       </c>
       <c r="M60" s="3">
+        <v>600</v>
+      </c>
+      <c r="N60" s="3">
         <v>1000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E61" s="3">
         <v>100</v>
@@ -3104,7 +3247,7 @@
         <v>100</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,28 +3485,31 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>800</v>
+      </c>
+      <c r="E66" s="3">
         <v>600</v>
-      </c>
-      <c r="E66" s="3">
-        <v>500</v>
       </c>
       <c r="F66" s="3">
         <v>500</v>
       </c>
       <c r="G66" s="3">
+        <v>500</v>
+      </c>
+      <c r="H66" s="3">
         <v>400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>500</v>
-      </c>
-      <c r="I66" s="3">
-        <v>600</v>
       </c>
       <c r="J66" s="3">
         <v>600</v>
@@ -3363,25 +3521,28 @@
         <v>600</v>
       </c>
       <c r="M66" s="3">
+        <v>600</v>
+      </c>
+      <c r="N66" s="3">
         <v>1000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-18800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-18700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-18600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-18500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-18400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-18300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-18400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-18300</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-18500</v>
       </c>
       <c r="M72" s="3">
         <v>-18500</v>
       </c>
       <c r="N72" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="O72" s="3">
         <v>-17900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-17800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-17700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-17600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-17500</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,8 +3983,11 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3809,13 +3995,13 @@
         <v>-600</v>
       </c>
       <c r="E76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F76" s="3">
         <v>-500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-400</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-200</v>
       </c>
       <c r="H76" s="3">
         <v>-200</v>
@@ -3824,34 +4010,37 @@
         <v>-200</v>
       </c>
       <c r="J76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K76" s="3">
         <v>-500</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-300</v>
       </c>
       <c r="L76" s="3">
         <v>-300</v>
       </c>
       <c r="M76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N76" s="3">
         <v>-800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,63 +4089,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3964,38 +4159,38 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
         <v>-200</v>
       </c>
       <c r="H81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
-        <v>-100</v>
-      </c>
       <c r="P81" s="3">
         <v>-100</v>
       </c>
@@ -4005,8 +4200,11 @@
       <c r="R81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4337,17 +4554,17 @@
         <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
       <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
-        <v>-100</v>
-      </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
@@ -4361,11 +4578,11 @@
         <v>-100</v>
       </c>
       <c r="N89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,13 +5058,16 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -4833,29 +5079,29 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,41 +5164,44 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
-        <v>-100</v>
-      </c>
       <c r="K102" s="3">
         <v>-100</v>
       </c>
       <c r="L102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -4963,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CPPXF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CPPXF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
   <si>
     <t>CPPXF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,93 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +803,14 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +862,14 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +921,14 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +1003,14 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1062,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1055,23 +1095,23 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>-200</v>
       </c>
-      <c r="M14" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P14" s="3">
         <v>500</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1081,8 +1121,14 @@
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1204,10 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1161,52 +1215,58 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
-        <v>100</v>
-      </c>
-      <c r="G17" s="3">
-        <v>100</v>
-      </c>
       <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
-        <v>100</v>
-      </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
       <c r="K17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L17" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
       <c r="N17" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>100</v>
-      </c>
       <c r="R17" s="3">
         <v>100</v>
       </c>
       <c r="S17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>100</v>
+      </c>
+      <c r="U17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,52 +1274,58 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-100</v>
-      </c>
       <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-100</v>
-      </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
       <c r="N18" s="3">
+        <v>100</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-100</v>
-      </c>
       <c r="R18" s="3">
         <v>-100</v>
       </c>
       <c r="S18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1345,10 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1315,14 +1383,14 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1332,8 +1400,14 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,7 +1415,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
         <v>-100</v>
@@ -1350,43 +1424,49 @@
         <v>-200</v>
       </c>
       <c r="H21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
-        <v>-100</v>
-      </c>
       <c r="J21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L21" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M21" s="3">
         <v>0</v>
       </c>
       <c r="N21" s="3">
+        <v>100</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>-800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-100</v>
-      </c>
       <c r="R21" s="3">
         <v>-100</v>
       </c>
       <c r="S21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,8 +1518,14 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1447,7 +1533,7 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
         <v>-100</v>
@@ -1456,43 +1542,49 @@
         <v>-200</v>
       </c>
       <c r="H23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
-        <v>-100</v>
-      </c>
       <c r="J23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
       <c r="N23" s="3">
+        <v>100</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-100</v>
-      </c>
       <c r="R23" s="3">
         <v>-100</v>
       </c>
       <c r="S23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1636,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1695,14 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1606,7 +1710,7 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
         <v>-100</v>
@@ -1615,43 +1719,49 @@
         <v>-200</v>
       </c>
       <c r="H26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
-        <v>-100</v>
-      </c>
       <c r="J26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
       <c r="N26" s="3">
+        <v>100</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-100</v>
-      </c>
       <c r="R26" s="3">
         <v>-100</v>
       </c>
       <c r="S26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1659,7 +1769,7 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
         <v>-100</v>
@@ -1668,43 +1778,49 @@
         <v>-200</v>
       </c>
       <c r="H27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
-        <v>-100</v>
-      </c>
       <c r="J27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
       <c r="N27" s="3">
+        <v>100</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-100</v>
-      </c>
       <c r="R27" s="3">
         <v>-100</v>
       </c>
       <c r="S27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1931,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +2049,14 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1951,14 +2091,14 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -1968,8 +2108,14 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1977,7 +2123,7 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
         <v>-100</v>
@@ -1986,43 +2132,49 @@
         <v>-200</v>
       </c>
       <c r="H33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
-        <v>-100</v>
-      </c>
       <c r="J33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
       <c r="N33" s="3">
+        <v>100</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-100</v>
-      </c>
       <c r="R33" s="3">
         <v>-100</v>
       </c>
       <c r="S33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2226,14 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2083,7 +2241,7 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
         <v>-100</v>
@@ -2092,101 +2250,113 @@
         <v>-200</v>
       </c>
       <c r="H35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
-        <v>-100</v>
-      </c>
       <c r="J35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
       <c r="N35" s="3">
+        <v>100</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-100</v>
-      </c>
       <c r="R35" s="3">
         <v>-100</v>
       </c>
       <c r="S35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,47 +2399,49 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>100</v>
-      </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
@@ -2280,8 +2454,14 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2312,29 +2492,35 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>4</v>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P42" s="3">
-        <v>100</v>
+      <c r="P42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>4</v>
+      <c r="R42" s="3">
+        <v>100</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2572,14 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2631,14 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2469,19 +2667,19 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2492,61 +2690,73 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>100</v>
+      </c>
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
-      </c>
-      <c r="J46" s="3">
-        <v>300</v>
-      </c>
-      <c r="K46" s="3">
-        <v>100</v>
       </c>
       <c r="L46" s="3">
         <v>300</v>
       </c>
       <c r="M46" s="3">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
+        <v>300</v>
+      </c>
+      <c r="O46" s="3">
         <v>400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
-        <v>100</v>
-      </c>
-      <c r="P46" s="3">
-        <v>100</v>
-      </c>
       <c r="Q46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2808,14 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2651,8 +2867,14 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2926,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +3044,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +3103,14 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3162,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>100</v>
+      </c>
+      <c r="F54" s="3">
         <v>200</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
       <c r="G54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
+        <v>100</v>
+      </c>
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>300</v>
-      </c>
-      <c r="J54" s="3">
-        <v>300</v>
-      </c>
-      <c r="K54" s="3">
-        <v>100</v>
       </c>
       <c r="L54" s="3">
         <v>300</v>
       </c>
       <c r="M54" s="3">
+        <v>100</v>
+      </c>
+      <c r="N54" s="3">
+        <v>300</v>
+      </c>
+      <c r="O54" s="3">
         <v>400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="O54" s="3">
-        <v>100</v>
-      </c>
-      <c r="P54" s="3">
-        <v>100</v>
-      </c>
       <c r="Q54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3271,10 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3023,57 +3285,63 @@
         <v>400</v>
       </c>
       <c r="F57" s="3">
+        <v>500</v>
+      </c>
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
-        <v>300</v>
-      </c>
       <c r="H57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I57" s="3">
         <v>300</v>
       </c>
       <c r="J57" s="3">
+        <v>300</v>
+      </c>
+      <c r="K57" s="3">
+        <v>300</v>
+      </c>
+      <c r="L57" s="3">
         <v>400</v>
-      </c>
-      <c r="K57" s="3">
-        <v>500</v>
-      </c>
-      <c r="L57" s="3">
-        <v>500</v>
       </c>
       <c r="M57" s="3">
         <v>500</v>
       </c>
       <c r="N57" s="3">
+        <v>500</v>
+      </c>
+      <c r="O57" s="3">
+        <v>500</v>
+      </c>
+      <c r="P57" s="3">
         <v>900</v>
-      </c>
-      <c r="O57" s="3">
-        <v>900</v>
-      </c>
-      <c r="P57" s="3">
-        <v>1000</v>
       </c>
       <c r="Q57" s="3">
         <v>900</v>
       </c>
       <c r="R57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S57" s="3">
+        <v>900</v>
+      </c>
+      <c r="T57" s="3">
         <v>800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
@@ -3091,10 +3359,10 @@
         <v>100</v>
       </c>
       <c r="K58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -3103,10 +3371,10 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
         <v>500</v>
@@ -3117,8 +3385,14 @@
       <c r="S58" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>500</v>
+      </c>
+      <c r="U58" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3144,10 +3418,10 @@
         <v>0</v>
       </c>
       <c r="K59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M59" s="3">
         <v>100</v>
@@ -3156,86 +3430,98 @@
         <v>100</v>
       </c>
       <c r="O59" s="3">
+        <v>100</v>
+      </c>
+      <c r="P59" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>200</v>
       </c>
-      <c r="Q59" s="3">
-        <v>100</v>
-      </c>
-      <c r="R59" s="3">
-        <v>100</v>
-      </c>
       <c r="S59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>100</v>
+      </c>
+      <c r="U59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>800</v>
+      </c>
+      <c r="E60" s="3">
         <v>600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
+        <v>600</v>
+      </c>
+      <c r="G60" s="3">
         <v>500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>400</v>
-      </c>
-      <c r="G60" s="3">
-        <v>400</v>
-      </c>
-      <c r="H60" s="3">
-        <v>300</v>
       </c>
       <c r="I60" s="3">
         <v>400</v>
       </c>
       <c r="J60" s="3">
+        <v>300</v>
+      </c>
+      <c r="K60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3">
-        <v>600</v>
-      </c>
       <c r="L60" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M60" s="3">
         <v>600</v>
       </c>
       <c r="N60" s="3">
+        <v>600</v>
+      </c>
+      <c r="O60" s="3">
+        <v>600</v>
+      </c>
+      <c r="P60" s="3">
         <v>1000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>200</v>
       </c>
-      <c r="E61" s="3">
-        <v>100</v>
-      </c>
       <c r="F61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G61" s="3">
         <v>100</v>
@@ -3250,10 +3536,10 @@
         <v>100</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -3276,8 +3562,14 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3621,14 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,8 +3798,14 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3497,25 +3813,25 @@
         <v>800</v>
       </c>
       <c r="E66" s="3">
+        <v>800</v>
+      </c>
+      <c r="F66" s="3">
+        <v>800</v>
+      </c>
+      <c r="G66" s="3">
         <v>600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>500</v>
-      </c>
-      <c r="G66" s="3">
-        <v>500</v>
-      </c>
-      <c r="H66" s="3">
-        <v>400</v>
       </c>
       <c r="I66" s="3">
         <v>500</v>
       </c>
       <c r="J66" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K66" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L66" s="3">
         <v>600</v>
@@ -3524,25 +3840,31 @@
         <v>600</v>
       </c>
       <c r="N66" s="3">
+        <v>600</v>
+      </c>
+      <c r="O66" s="3">
+        <v>600</v>
+      </c>
+      <c r="P66" s="3">
         <v>1000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,31 +4116,37 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-18900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="G72" s="3">
         <v>-18800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-18700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-18600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-18500</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-18400</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-18300</v>
       </c>
       <c r="K72" s="3">
         <v>-18400</v>
@@ -3807,28 +4155,34 @@
         <v>-18300</v>
       </c>
       <c r="M72" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="N72" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="O72" s="3">
         <v>-18500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-18500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-17900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-17800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-17700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-17600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-17500</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F76" s="3">
         <v>-600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-400</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-200</v>
       </c>
       <c r="J76" s="3">
         <v>-200</v>
       </c>
       <c r="K76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M76" s="3">
         <v>-500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-1700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-1500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-1400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4470,78 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4159,7 +4549,7 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
         <v>-100</v>
@@ -4168,43 +4558,49 @@
         <v>-200</v>
       </c>
       <c r="H81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
-        <v>-100</v>
-      </c>
       <c r="J81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
       <c r="N81" s="3">
+        <v>100</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-100</v>
-      </c>
       <c r="R81" s="3">
         <v>-100</v>
       </c>
       <c r="S81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4620,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4675,14 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4970,14 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4551,26 +4985,26 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-100</v>
-      </c>
       <c r="L89" s="3">
         <v>-100</v>
       </c>
@@ -4581,22 +5015,28 @@
         <v>-100</v>
       </c>
       <c r="O89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +5056,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +5111,14 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5229,14 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5288,14 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,20 +5547,26 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -5082,31 +5574,31 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>300</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -5114,8 +5606,14 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,47 +5665,53 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-100</v>
-      </c>
       <c r="M102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -5218,6 +5722,12 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CPPXF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CPPXF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>CPPXF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,96 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -809,8 +812,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -868,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1101,20 +1120,20 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N14" s="3">
         <v>-200</v>
       </c>
       <c r="O14" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q14" s="3">
         <v>500</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1127,8 +1146,11 @@
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,8 +1231,9 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1221,41 +1247,41 @@
         <v>100</v>
       </c>
       <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
-        <v>100</v>
-      </c>
       <c r="I17" s="3">
         <v>100</v>
       </c>
       <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
-        <v>100</v>
-      </c>
       <c r="L17" s="3">
         <v>100</v>
       </c>
       <c r="M17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N17" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
-        <v>100</v>
-      </c>
       <c r="S17" s="3">
         <v>100</v>
       </c>
@@ -1265,8 +1291,11 @@
       <c r="U17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1280,41 +1309,41 @@
         <v>-100</v>
       </c>
       <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
-        <v>-100</v>
-      </c>
       <c r="I18" s="3">
         <v>-100</v>
       </c>
       <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
-        <v>-100</v>
-      </c>
       <c r="L18" s="3">
         <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
-        <v>-100</v>
-      </c>
       <c r="S18" s="3">
         <v>-100</v>
       </c>
@@ -1324,8 +1353,11 @@
       <c r="U18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,11 +1422,11 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1406,8 +1439,11 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1421,41 +1457,41 @@
         <v>-100</v>
       </c>
       <c r="G21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
-        <v>-100</v>
-      </c>
       <c r="I21" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J21" s="3">
         <v>-200</v>
       </c>
       <c r="K21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L21" s="3">
         <v>-100</v>
       </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
-        <v>-100</v>
-      </c>
       <c r="S21" s="3">
         <v>-100</v>
       </c>
@@ -1465,8 +1501,11 @@
       <c r="U21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,8 +1563,11 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1539,41 +1581,41 @@
         <v>-100</v>
       </c>
       <c r="G23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
-        <v>-100</v>
-      </c>
       <c r="I23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J23" s="3">
         <v>-200</v>
       </c>
       <c r="K23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L23" s="3">
         <v>-100</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
-        <v>-100</v>
-      </c>
       <c r="S23" s="3">
         <v>-100</v>
       </c>
@@ -1583,8 +1625,11 @@
       <c r="U23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,8 +1749,11 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1716,41 +1767,41 @@
         <v>-100</v>
       </c>
       <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
-        <v>-100</v>
-      </c>
       <c r="I26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J26" s="3">
         <v>-200</v>
       </c>
       <c r="K26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L26" s="3">
         <v>-100</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
-        <v>-100</v>
-      </c>
       <c r="S26" s="3">
         <v>-100</v>
       </c>
@@ -1760,8 +1811,11 @@
       <c r="U26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1775,41 +1829,41 @@
         <v>-100</v>
       </c>
       <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
-        <v>-100</v>
-      </c>
       <c r="I27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J27" s="3">
         <v>-200</v>
       </c>
       <c r="K27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
-        <v>-100</v>
-      </c>
       <c r="S27" s="3">
         <v>-100</v>
       </c>
@@ -1819,8 +1873,11 @@
       <c r="U27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2097,11 +2166,11 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2114,8 +2183,11 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2129,41 +2201,41 @@
         <v>-100</v>
       </c>
       <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
-        <v>-100</v>
-      </c>
       <c r="I33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J33" s="3">
         <v>-200</v>
       </c>
       <c r="K33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
-        <v>-100</v>
-      </c>
       <c r="S33" s="3">
         <v>-100</v>
       </c>
@@ -2173,8 +2245,11 @@
       <c r="U33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,8 +2307,11 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2247,41 +2325,41 @@
         <v>-100</v>
       </c>
       <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
-        <v>-100</v>
-      </c>
       <c r="I35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J35" s="3">
         <v>-200</v>
       </c>
       <c r="K35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
-        <v>-100</v>
-      </c>
       <c r="S35" s="3">
         <v>-100</v>
       </c>
@@ -2291,72 +2369,78 @@
       <c r="U35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,8 +2486,9 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2410,41 +2496,41 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>300</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
@@ -2460,8 +2546,11 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2498,8 +2587,8 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>4</v>
+      <c r="O42" s="3">
+        <v>0</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>4</v>
@@ -2507,11 +2596,11 @@
       <c r="Q42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R42" s="3">
-        <v>100</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>4</v>
+      <c r="R42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S42" s="3">
+        <v>100</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>4</v>
@@ -2519,8 +2608,11 @@
       <c r="U42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2578,8 +2670,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,8 +2732,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2673,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
@@ -2682,7 +2780,7 @@
         <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -2696,58 +2794,61 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
       </c>
       <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3">
         <v>200</v>
-      </c>
-      <c r="K46" s="3">
-        <v>300</v>
       </c>
       <c r="L46" s="3">
         <v>300</v>
       </c>
       <c r="M46" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
-        <v>100</v>
-      </c>
       <c r="R46" s="3">
         <v>100</v>
       </c>
       <c r="S46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T46" s="3">
         <v>0</v>
@@ -2755,8 +2856,11 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,8 +2918,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2873,8 +2980,11 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3109,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,58 +3290,61 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E54" s="3">
         <v>100</v>
       </c>
       <c r="F54" s="3">
+        <v>100</v>
+      </c>
+      <c r="G54" s="3">
         <v>200</v>
       </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
       <c r="H54" s="3">
         <v>0</v>
       </c>
       <c r="I54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J54" s="3">
+        <v>100</v>
+      </c>
+      <c r="K54" s="3">
         <v>200</v>
-      </c>
-      <c r="K54" s="3">
-        <v>300</v>
       </c>
       <c r="L54" s="3">
         <v>300</v>
       </c>
       <c r="M54" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N54" s="3">
+        <v>100</v>
+      </c>
+      <c r="O54" s="3">
         <v>300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3">
-        <v>100</v>
-      </c>
       <c r="R54" s="3">
         <v>100</v>
       </c>
       <c r="S54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T54" s="3">
         <v>0</v>
@@ -3227,8 +3352,11 @@
       <c r="U54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3282,19 +3412,19 @@
         <v>500</v>
       </c>
       <c r="E57" s="3">
+        <v>500</v>
+      </c>
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
-      </c>
-      <c r="G57" s="3">
-        <v>400</v>
       </c>
       <c r="H57" s="3">
         <v>400</v>
       </c>
       <c r="I57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J57" s="3">
         <v>300</v>
@@ -3303,10 +3433,10 @@
         <v>300</v>
       </c>
       <c r="L57" s="3">
+        <v>300</v>
+      </c>
+      <c r="M57" s="3">
         <v>400</v>
-      </c>
-      <c r="M57" s="3">
-        <v>500</v>
       </c>
       <c r="N57" s="3">
         <v>500</v>
@@ -3315,25 +3445,28 @@
         <v>500</v>
       </c>
       <c r="P57" s="3">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="Q57" s="3">
         <v>900</v>
       </c>
       <c r="R57" s="3">
+        <v>900</v>
+      </c>
+      <c r="S57" s="3">
         <v>1000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>900</v>
-      </c>
-      <c r="T57" s="3">
-        <v>800</v>
       </c>
       <c r="U57" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3341,11 +3474,11 @@
         <v>400</v>
       </c>
       <c r="E58" s="3">
+        <v>400</v>
+      </c>
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3">
-        <v>100</v>
-      </c>
       <c r="G58" s="3">
         <v>100</v>
       </c>
@@ -3365,7 +3498,7 @@
         <v>100</v>
       </c>
       <c r="M58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -3377,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="R58" s="3">
         <v>500</v>
@@ -3391,8 +3524,11 @@
       <c r="U58" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3424,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="M59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N59" s="3">
         <v>100</v>
@@ -3436,54 +3572,57 @@
         <v>100</v>
       </c>
       <c r="Q59" s="3">
+        <v>100</v>
+      </c>
+      <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>200</v>
       </c>
-      <c r="S59" s="3">
-        <v>100</v>
-      </c>
       <c r="T59" s="3">
         <v>100</v>
       </c>
       <c r="U59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>900</v>
+      </c>
+      <c r="E60" s="3">
         <v>800</v>
-      </c>
-      <c r="E60" s="3">
-        <v>600</v>
       </c>
       <c r="F60" s="3">
         <v>600</v>
       </c>
       <c r="G60" s="3">
+        <v>600</v>
+      </c>
+      <c r="H60" s="3">
         <v>500</v>
-      </c>
-      <c r="H60" s="3">
-        <v>400</v>
       </c>
       <c r="I60" s="3">
         <v>400</v>
       </c>
       <c r="J60" s="3">
+        <v>400</v>
+      </c>
+      <c r="K60" s="3">
         <v>300</v>
-      </c>
-      <c r="K60" s="3">
-        <v>400</v>
       </c>
       <c r="L60" s="3">
         <v>400</v>
       </c>
       <c r="M60" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N60" s="3">
         <v>600</v>
@@ -3492,25 +3631,28 @@
         <v>600</v>
       </c>
       <c r="P60" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q60" s="3">
         <v>1000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3518,13 +3660,13 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>200</v>
       </c>
       <c r="G61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H61" s="3">
         <v>100</v>
@@ -3542,7 +3684,7 @@
         <v>100</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -3568,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3627,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,13 +3958,16 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E66" s="3">
         <v>800</v>
@@ -3819,22 +3976,22 @@
         <v>800</v>
       </c>
       <c r="G66" s="3">
+        <v>800</v>
+      </c>
+      <c r="H66" s="3">
         <v>600</v>
-      </c>
-      <c r="H66" s="3">
-        <v>500</v>
       </c>
       <c r="I66" s="3">
         <v>500</v>
       </c>
       <c r="J66" s="3">
+        <v>500</v>
+      </c>
+      <c r="K66" s="3">
         <v>400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>500</v>
-      </c>
-      <c r="L66" s="3">
-        <v>600</v>
       </c>
       <c r="M66" s="3">
         <v>600</v>
@@ -3846,25 +4003,28 @@
         <v>600</v>
       </c>
       <c r="P66" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-19000</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-18900</v>
       </c>
       <c r="F72" s="3">
         <v>-18900</v>
       </c>
       <c r="G72" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="H72" s="3">
         <v>-18800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-18700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-18600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-18500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-18400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-18300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-18400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-18300</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-18500</v>
       </c>
       <c r="P72" s="3">
         <v>-18500</v>
       </c>
       <c r="Q72" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="R72" s="3">
         <v>-17900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-17800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-17700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-17600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-17500</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,8 +4540,11 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4367,22 +4552,22 @@
         <v>-800</v>
       </c>
       <c r="E76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F76" s="3">
         <v>-700</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-600</v>
       </c>
       <c r="G76" s="3">
         <v>-600</v>
       </c>
       <c r="H76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I76" s="3">
         <v>-500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-400</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-200</v>
       </c>
       <c r="K76" s="3">
         <v>-200</v>
@@ -4391,34 +4576,37 @@
         <v>-200</v>
       </c>
       <c r="M76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N76" s="3">
         <v>-500</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-300</v>
       </c>
       <c r="O76" s="3">
         <v>-300</v>
       </c>
       <c r="P76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,72 +4664,78 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4555,41 +4749,41 @@
         <v>-100</v>
       </c>
       <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
-        <v>-100</v>
-      </c>
       <c r="I81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J81" s="3">
         <v>-200</v>
       </c>
       <c r="K81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
-        <v>-100</v>
-      </c>
       <c r="S81" s="3">
         <v>-100</v>
       </c>
@@ -4599,8 +4793,11 @@
       <c r="U81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4681,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,8 +5189,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4985,10 +5201,10 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
@@ -4997,17 +5213,17 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
-        <v>-100</v>
-      </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
@@ -5021,11 +5237,11 @@
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
@@ -5035,8 +5251,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5117,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5294,8 +5523,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,8 +5795,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5565,11 +5810,11 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -5580,29 +5825,29 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
       <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
@@ -5612,8 +5857,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,8 +5919,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5680,41 +5931,41 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
-        <v>-100</v>
-      </c>
       <c r="N102" s="3">
         <v>-100</v>
       </c>
       <c r="O102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
@@ -5728,6 +5979,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>
